--- a/source_data_old/Qual_4_data.xlsx
+++ b/source_data_old/Qual_4_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madit\Desktop\UN\3 Minimum Set of Data indicators\Data Formatting\Qual New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F80CAA-2711-4C57-87E2-86BF61A7E2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5508D5A8-D7FB-4D15-882F-346876FF6B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB2127BC-B94C-41B5-AC38-A321AADA32B5}"/>
+    <workbookView xWindow="8235" yWindow="1230" windowWidth="12045" windowHeight="11055" xr2:uid="{AB2127BC-B94C-41B5-AC38-A321AADA32B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Qual_4" sheetId="1" r:id="rId1"/>
@@ -1701,7 +1701,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1717,7 +1717,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2015,11 +2015,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7856A918-A738-4067-8BAB-07FA7B4DF19C}">
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="11.42578125" style="4"/>
     <col min="14" max="14" width="27.28515625" style="4" customWidth="1"/>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="3" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="10" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="12" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="17" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="18" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="19" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="23" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="27" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="28" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="29" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="31" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="34" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="38" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
         <v>4</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2">
         <v>4</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="44" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="45" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
         <v>4</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="46" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>4</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="47" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2">
         <v>4</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="48" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
         <v>4</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="50" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2">
         <v>4</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="52" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
         <v>4</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="53" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
         <v>4</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>4</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>4</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>4</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>4</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>4</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2">
         <v>4</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B62" s="2">
         <v>4</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2">
         <v>4</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B65" s="2">
         <v>4</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B66" s="2">
         <v>4</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2">
         <v>4</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="68" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2">
         <v>4</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2">
         <v>4</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B70" s="2">
         <v>4</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="71" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B72" s="2">
         <v>4</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="73" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2">
         <v>4</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B74" s="2">
         <v>4</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="75" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="76" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B76" s="2">
         <v>4</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B77" s="2">
         <v>4</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="78" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B78" s="2">
         <v>4</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="79" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B79" s="2">
         <v>4</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="80" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B80" s="2">
         <v>4</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="81" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B81" s="2">
         <v>4</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B82" s="2">
         <v>4</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B83" s="2">
         <v>4</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="84" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B84" s="2">
         <v>4</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="85" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B85" s="2">
         <v>4</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="86" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B86" s="2">
         <v>4</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B87" s="2">
         <v>4</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B88" s="2">
         <v>4</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="89" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B89" s="2">
         <v>4</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="90" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B90" s="2">
         <v>4</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="91" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B91" s="2">
         <v>4</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B92" s="2">
         <v>4</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="93" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B94" s="2">
         <v>4</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B96" s="2">
         <v>4</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="97" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B97" s="2">
         <v>4</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="98" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B98" s="2">
         <v>4</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="99" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B99" s="2">
         <v>4</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="100" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B100" s="2">
         <v>4</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="101" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B101" s="2">
         <v>4</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B102" s="2">
         <v>4</v>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="103" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B103" s="2">
         <v>4</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="104" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B104" s="2">
         <v>4</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="105" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B105" s="2">
         <v>4</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B106" s="2">
         <v>4</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="107" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B107" s="2">
         <v>4</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="108" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B108" s="2">
         <v>4</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B109" s="2">
         <v>4</v>
@@ -8788,7 +8788,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B110" s="2">
         <v>4</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="111" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B111" s="2">
         <v>4</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B112" s="2">
         <v>4</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B113" s="2">
         <v>4</v>
@@ -9036,7 +9036,7 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B114" s="2">
         <v>4</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="115" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B115" s="2">
         <v>4</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="116" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B116" s="2">
         <v>4</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="117" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B118" s="2">
         <v>4</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B119" s="2">
         <v>4</v>
@@ -9406,9 +9406,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B120" s="2">
         <v>4</v>
@@ -9470,7 +9470,7 @@
     </row>
     <row r="121" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B121" s="2">
         <v>4</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="122" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B122" s="2">
         <v>4</v>
@@ -9594,7 +9594,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B123" s="2">
         <v>4</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="124" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B124" s="2">
         <v>4</v>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B125" s="2">
         <v>4</v>
@@ -9780,7 +9780,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B126" s="2">
         <v>4</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B127" s="2">
         <v>4</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B128" s="2">
         <v>4</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="129" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B129" s="2">
         <v>4</v>
@@ -10028,7 +10028,7 @@
     </row>
     <row r="130" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B130" s="2">
         <v>4</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="131" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B131" s="2">
         <v>4</v>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="132" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B132" s="2">
         <v>4</v>
@@ -10214,7 +10214,7 @@
     </row>
     <row r="133" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B133" s="2">
         <v>4</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B134" s="2">
         <v>4</v>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="135" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B135" s="2">
         <v>4</v>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="136" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B136" s="2">
         <v>4</v>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B137" s="2">
         <v>4</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="138" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B138" s="2">
         <v>4</v>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B139" s="2">
         <v>4</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B140" s="2">
         <v>4</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B141" s="2">
         <v>4</v>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B142" s="2">
         <v>4</v>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="143" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B143" s="2">
         <v>4</v>
@@ -10896,7 +10896,7 @@
     </row>
     <row r="144" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B144" s="2">
         <v>4</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="145" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B145" s="2">
         <v>4</v>
@@ -11020,7 +11020,7 @@
     </row>
     <row r="146" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B146" s="2">
         <v>4</v>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="147" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B147" s="2">
         <v>4</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="148" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B148" s="2">
         <v>4</v>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="149" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B149" s="2">
         <v>4</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B150" s="2">
         <v>4</v>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="151" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B151" s="2">
         <v>4</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B152" s="2">
         <v>4</v>
@@ -11454,7 +11454,7 @@
     </row>
     <row r="153" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B153" s="2">
         <v>4</v>
@@ -11516,7 +11516,7 @@
     </row>
     <row r="154" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B154" s="2">
         <v>4</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B155" s="2">
         <v>4</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="156" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B156" s="2">
         <v>4</v>
@@ -11702,7 +11702,7 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B157" s="2">
         <v>4</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="158" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B158" s="2">
         <v>4</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B159" s="2">
         <v>4</v>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B160" s="2">
         <v>4</v>
@@ -11950,7 +11950,7 @@
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B161" s="2">
         <v>4</v>
@@ -12012,7 +12012,7 @@
     </row>
     <row r="162" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B162" s="2">
         <v>4</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="163" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B163" s="2">
         <v>4</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B164" s="2">
         <v>4</v>
@@ -12198,7 +12198,7 @@
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B165" s="2">
         <v>4</v>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="166" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B166" s="2">
         <v>4</v>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="167" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B167" s="2">
         <v>4</v>
@@ -12382,9 +12382,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B168" s="2">
         <v>4</v>
@@ -12446,7 +12446,7 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B169" s="2">
         <v>4</v>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="170" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B170" s="2">
         <v>4</v>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B171" s="2">
         <v>4</v>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B172" s="2">
         <v>4</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="173" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B173" s="2">
         <v>4</v>
@@ -12754,9 +12754,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B174" s="2">
         <v>4</v>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="175" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B175" s="2">
         <v>4</v>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="176" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B176" s="2">
         <v>4</v>
@@ -12942,7 +12942,7 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B177" s="2">
         <v>4</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="178" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B178" s="2">
         <v>4</v>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="179" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B179" s="2">
         <v>4</v>
@@ -13128,7 +13128,7 @@
     </row>
     <row r="180" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B180" s="2">
         <v>4</v>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B181" s="2">
         <v>4</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="182" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B182" s="2">
         <v>4</v>
@@ -13314,7 +13314,7 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B183" s="2">
         <v>4</v>
@@ -13376,7 +13376,7 @@
     </row>
     <row r="184" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B184" s="2">
         <v>4</v>
@@ -13438,7 +13438,7 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B185" s="2">
         <v>4</v>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B186" s="2">
         <v>4</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="187" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B187" s="2">
         <v>4</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B188" s="2">
         <v>4</v>
@@ -13686,7 +13686,7 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B189" s="2">
         <v>4</v>
@@ -13748,7 +13748,7 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B190" s="2">
         <v>4</v>
@@ -14066,7 +14066,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D02A1B47-8067-461B-B765-05B22E925266}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D02A1B47-8067-461B-B765-05B22E925266}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
